--- a/src/test/resources/UdemyData.xlsx
+++ b/src/test/resources/UdemyData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>email</t>
   </si>
@@ -33,7 +33,37 @@
     <t>dineshkumar.icon.dk@gmail.com</t>
   </si>
   <si>
-    <t>dinn2535xfvhjmmbk</t>
+    <t>adsdfhghk52346421</t>
+  </si>
+  <si>
+    <t>adsdfhghk52346422</t>
+  </si>
+  <si>
+    <t>adsdfhghk52346423</t>
+  </si>
+  <si>
+    <t>adsdfhghk52346424</t>
+  </si>
+  <si>
+    <t>adsdfhghk52346425</t>
+  </si>
+  <si>
+    <t>adsdfhghk52346426</t>
+  </si>
+  <si>
+    <t>adsdfhghk52346427</t>
+  </si>
+  <si>
+    <t>adsdfhghk52346428</t>
+  </si>
+  <si>
+    <t>adsdfhghk52346429</t>
+  </si>
+  <si>
+    <t>adsdfhghk52346430</t>
+  </si>
+  <si>
+    <t>adsdfhghk52346431</t>
   </si>
 </sst>
 </file>
@@ -365,7 +395,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,7 +425,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -403,7 +433,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -411,7 +441,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -419,7 +449,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -427,7 +457,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -435,7 +465,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -443,7 +473,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -451,7 +481,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -459,7 +489,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -467,7 +497,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,25 +509,16 @@
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2" display="Dinnu@247"/>
     <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="B3" r:id="rId4" display="Dinnu@247"/>
-    <hyperlink ref="A4" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7"/>
-    <hyperlink ref="A10" r:id="rId8"/>
-    <hyperlink ref="A12" r:id="rId9"/>
-    <hyperlink ref="B4" r:id="rId10" display="Dinnu@247"/>
-    <hyperlink ref="B6" r:id="rId11" display="Dinnu@247"/>
-    <hyperlink ref="B8" r:id="rId12" display="Dinnu@247"/>
-    <hyperlink ref="B10" r:id="rId13" display="Dinnu@247"/>
-    <hyperlink ref="B12" r:id="rId14" display="Dinnu@247"/>
-    <hyperlink ref="A5" r:id="rId15"/>
-    <hyperlink ref="A7" r:id="rId16"/>
-    <hyperlink ref="A9" r:id="rId17"/>
-    <hyperlink ref="A11" r:id="rId18"/>
-    <hyperlink ref="B5" r:id="rId19" display="Dinnu@247"/>
-    <hyperlink ref="B7" r:id="rId20" display="Dinnu@247"/>
-    <hyperlink ref="B9" r:id="rId21" display="Dinnu@247"/>
-    <hyperlink ref="B11" r:id="rId22" display="Dinnu@247"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A8" r:id="rId6"/>
+    <hyperlink ref="A10" r:id="rId7"/>
+    <hyperlink ref="A12" r:id="rId8"/>
+    <hyperlink ref="A5" r:id="rId9"/>
+    <hyperlink ref="A7" r:id="rId10"/>
+    <hyperlink ref="A9" r:id="rId11"/>
+    <hyperlink ref="A11" r:id="rId12"/>
+    <hyperlink ref="B3:B12" r:id="rId13" display="Dinnu@247"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/UdemyData.xlsx
+++ b/src/test/resources/UdemyData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="5">
   <si>
     <t>email</t>
   </si>
@@ -33,37 +33,7 @@
     <t>dineshkumar.icon.dk@gmail.com</t>
   </si>
   <si>
-    <t>adsdfhghk52346421</t>
-  </si>
-  <si>
-    <t>adsdfhghk52346422</t>
-  </si>
-  <si>
-    <t>adsdfhghk52346423</t>
-  </si>
-  <si>
-    <t>adsdfhghk52346424</t>
-  </si>
-  <si>
-    <t>adsdfhghk52346425</t>
-  </si>
-  <si>
-    <t>adsdfhghk52346426</t>
-  </si>
-  <si>
-    <t>adsdfhghk52346427</t>
-  </si>
-  <si>
-    <t>adsdfhghk52346428</t>
-  </si>
-  <si>
-    <t>adsdfhghk52346429</t>
-  </si>
-  <si>
-    <t>adsdfhghk52346430</t>
-  </si>
-  <si>
-    <t>adsdfhghk52346431</t>
+    <t>Dinnu@247</t>
   </si>
 </sst>
 </file>
@@ -395,7 +365,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +395,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -433,7 +403,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -441,7 +411,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -449,7 +419,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -457,7 +427,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -465,7 +435,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -473,7 +443,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -481,7 +451,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -489,7 +459,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -497,7 +467,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -507,7 +477,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2" display="Dinnu@247"/>
+    <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A6" r:id="rId5"/>
@@ -518,7 +488,16 @@
     <hyperlink ref="A7" r:id="rId10"/>
     <hyperlink ref="A9" r:id="rId11"/>
     <hyperlink ref="A11" r:id="rId12"/>
-    <hyperlink ref="B3:B12" r:id="rId13" display="Dinnu@247"/>
+    <hyperlink ref="B3" r:id="rId13"/>
+    <hyperlink ref="B4" r:id="rId14"/>
+    <hyperlink ref="B5" r:id="rId15"/>
+    <hyperlink ref="B7" r:id="rId16"/>
+    <hyperlink ref="B6" r:id="rId17"/>
+    <hyperlink ref="B8" r:id="rId18"/>
+    <hyperlink ref="B9" r:id="rId19"/>
+    <hyperlink ref="B10" r:id="rId20"/>
+    <hyperlink ref="B11" r:id="rId21"/>
+    <hyperlink ref="B12" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
